--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48299.87462788756</v>
+        <v>9611675.050949616</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48299.87462788756</v>
+        <v>9611675.050949616</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2541.701105651283</v>
+        <v>155842.8769365043</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2541.701105651283</v>
+        <v>155842.8769365043</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342216932.897115</v>
+        <v>54604086.67155329</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10922.74756976681</v>
+        <v>1192762.610655259</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21272.57937398696</v>
+        <v>2295347.888623047</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31619.24350143943</v>
+        <v>3397302.798914068</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42411.65633218471</v>
+        <v>4512788.791665734</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53134.3802740411</v>
+        <v>5614406.69552851</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63857.10421589749</v>
+        <v>6716024.599391284</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74579.82815775386</v>
+        <v>7817642.503254056</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85302.55209961024</v>
+        <v>8919260.407116825</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96585.94393581181</v>
+        <v>10010274.69966646</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107767.3222271588</v>
+        <v>11087391.18305247</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118729.7997043686</v>
+        <v>12189009.08691525</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129375.9343734964</v>
+        <v>13277095.90831739</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140091.7579315131</v>
+        <v>14379050.81860842</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150807.5814895297</v>
+        <v>15481005.72889945</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161537.2485286436</v>
+        <v>16580452.30867223</v>
       </c>
     </row>
   </sheetData>
